--- a/data/trans_dic/P55$pareja-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$pareja-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4302635982876702</v>
+        <v>0.4345159144455565</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3079812649237858</v>
+        <v>0.3035483543188383</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3153143212320425</v>
+        <v>0.3307532586323623</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.268953951271712</v>
+        <v>0.2547613279145786</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07339181493320716</v>
+        <v>0.07132830205831271</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1131508548074474</v>
+        <v>0.1091441231454511</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09844593230655981</v>
+        <v>0.09747828540658256</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08150790866343548</v>
+        <v>0.08139708369060511</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2054175956102215</v>
+        <v>0.2020205628944155</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1898101260851626</v>
+        <v>0.1883299828712782</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1846038274165107</v>
+        <v>0.1815831231156259</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.142181935679909</v>
+        <v>0.1413497151103226</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6124728166267246</v>
+        <v>0.6192570180931605</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5034934287232636</v>
+        <v>0.5026515355354412</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.50815825072332</v>
+        <v>0.5187877988225408</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4261339374674039</v>
+        <v>0.4124963350794832</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1580973891635885</v>
+        <v>0.1639224874021063</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2046576170451157</v>
+        <v>0.2057829727602508</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2058968289222542</v>
+        <v>0.20568844256366</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1355581076558817</v>
+        <v>0.1368592885895528</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2972189615377336</v>
+        <v>0.302604422089141</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2797995488907664</v>
+        <v>0.284494020447653</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2755344579674107</v>
+        <v>0.2780086923247233</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2056354093571077</v>
+        <v>0.1997839763134664</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1758439691207025</v>
+        <v>0.1663765127350039</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1834081554569813</v>
+        <v>0.1919171977649591</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2635465946389084</v>
+        <v>0.2773937391229204</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.234464733361202</v>
+        <v>0.2362598069654833</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04527561202447138</v>
+        <v>0.04608854207852638</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1492675934559689</v>
+        <v>0.1617965959971253</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1245353909772898</v>
+        <v>0.1194701730579081</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09543659998731016</v>
+        <v>0.0981230523792475</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1623547442720177</v>
+        <v>0.174617707296526</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2310523555240001</v>
+        <v>0.2276481461576775</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1926402733984048</v>
+        <v>0.193998810411759</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6409000201264574</v>
+        <v>0.6210254184684555</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6572297160809109</v>
+        <v>0.6459998053575892</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.657170251127433</v>
+        <v>0.6521673459867097</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.457295593097482</v>
+        <v>0.4607420078089455</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3041961390282399</v>
+        <v>0.3313307109538347</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4060677395047043</v>
+        <v>0.4065520595735732</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4384166063971882</v>
+        <v>0.4367017259450123</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2797017239503311</v>
+        <v>0.2714299158426059</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.413933168056813</v>
+        <v>0.4334899729077888</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4589728095825788</v>
+        <v>0.444110244857957</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.469468372337555</v>
+        <v>0.4563561065246753</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3226482336728931</v>
+        <v>0.3226437575718714</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7947628560473247</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5789255954599863</v>
+        <v>0.5789255954599862</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1100711274204092</v>
@@ -957,7 +957,7 @@
         <v>0.1528493488496563</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1798581287432098</v>
+        <v>0.1798581287432097</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1797515948279772</v>
@@ -984,10 +984,10 @@
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.1851370756731051</v>
+        <v>0.2188156711443912</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.372572337511604</v>
+        <v>0.375327296729448</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -999,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06998166886512859</v>
+        <v>0.05939963866624796</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04588279516515265</v>
+        <v>0.04826330281809783</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.134553856939596</v>
+        <v>0.1259466166347938</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2630825781484099</v>
+        <v>0.2424243178449544</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7079579323475944</v>
+        <v>0.7452277661966987</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7642156398243619</v>
+        <v>0.7717530290300498</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4655525321059271</v>
+        <v>0.4864294269778225</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1</v>
+        <v>0.7681181017957516</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6</v>
+        <v>0.6045280887880237</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3701449747100283</v>
+        <v>0.3631747776188481</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4125612513721385</v>
+        <v>0.4654527115626831</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6810455920746</v>
+        <v>0.6990533912159875</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7767275379750854</v>
+        <v>0.7556273660542026</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5396424517046707</v>
+        <v>0.5254673000822405</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3990990758796476</v>
+        <v>0.3927919396533059</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3103692095760891</v>
+        <v>0.3089694678916448</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3655085366249783</v>
+        <v>0.3668498396276057</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3099053099091133</v>
+        <v>0.3093458191200719</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07467356715150032</v>
+        <v>0.07314970349650399</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1102025629357299</v>
+        <v>0.1145701776810748</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1211395495811254</v>
+        <v>0.1278998762430598</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1025591419681253</v>
+        <v>0.1001793754585612</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2010695570804684</v>
+        <v>0.1994395537853819</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1943226386453054</v>
+        <v>0.1971173448916881</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2129083481841398</v>
+        <v>0.2094274602335464</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1767080975972155</v>
+        <v>0.1714400903659243</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.572002725873816</v>
+        <v>0.5845679426895661</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4840744276628496</v>
+        <v>0.4902804845628937</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5241453321262012</v>
+        <v>0.5351558344725688</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.42745397647856</v>
+        <v>0.4320180366572918</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1565721811640426</v>
+        <v>0.1534534152063914</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.205731637527348</v>
+        <v>0.2053935812904511</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2238356991038389</v>
+        <v>0.2270185971844159</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1546404371987274</v>
+        <v>0.1480124203696655</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2834284296269888</v>
+        <v>0.2890948580625488</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2811278114520239</v>
+        <v>0.2887693619111234</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3103278473538845</v>
+        <v>0.3070816339598057</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2294363507291177</v>
+        <v>0.2272514566214654</v>
       </c>
     </row>
     <row r="16">
@@ -1459,40 +1459,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>44328</v>
+        <v>44766</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>38228</v>
+        <v>37678</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29471</v>
+        <v>30914</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>27910</v>
+        <v>26437</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>15108</v>
+        <v>14683</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>28383</v>
+        <v>27378</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>20532</v>
+        <v>20330</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>22562</v>
+        <v>22532</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>63449</v>
+        <v>62400</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>71173</v>
+        <v>70618</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>55755</v>
+        <v>54843</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>54112</v>
+        <v>53795</v>
       </c>
     </row>
     <row r="7">
@@ -1503,40 +1503,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>63101</v>
+        <v>63800</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>62496</v>
+        <v>62392</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>47495</v>
+        <v>48488</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>44220</v>
+        <v>42805</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>32545</v>
+        <v>33744</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>51337</v>
+        <v>51619</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>42942</v>
+        <v>42899</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>37524</v>
+        <v>37884</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>91804</v>
+        <v>93468</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>104916</v>
+        <v>106676</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>83218</v>
+        <v>83966</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>78262</v>
+        <v>76035</v>
       </c>
     </row>
     <row r="8">
@@ -1639,40 +1639,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2495</v>
+        <v>2361</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3671</v>
+        <v>3841</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6029</v>
+        <v>6346</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11095</v>
+        <v>11180</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>958</v>
+        <v>975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7768</v>
+        <v>8420</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7803</v>
+        <v>7485</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2642</v>
+        <v>2717</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>6684</v>
+        <v>7189</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>17310</v>
+        <v>17055</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>21186</v>
+        <v>21335</v>
       </c>
     </row>
     <row r="11">
@@ -1683,40 +1683,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9093</v>
+        <v>8811</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13154</v>
+        <v>12930</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15033</v>
+        <v>14919</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21640</v>
+        <v>21803</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4106</v>
+        <v>4473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8590</v>
+        <v>8600</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>22815</v>
+        <v>22726</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>17524</v>
+        <v>17006</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11461</v>
+        <v>12002</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>18895</v>
+        <v>18283</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>35171</v>
+        <v>34189</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>35484</v>
+        <v>35483</v>
       </c>
     </row>
     <row r="12">
@@ -1823,10 +1823,10 @@
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>948</v>
+        <v>1120</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6175</v>
+        <v>6220</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1838,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1102</v>
+        <v>935</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>961</v>
+        <v>1010</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1598</v>
+        <v>1496</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8502</v>
+        <v>7834</v>
       </c>
     </row>
     <row r="15">
@@ -1861,38 +1861,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6630</v>
+        <v>6979</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
         <v>5118</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12665</v>
+        <v>12790</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5387</v>
+        <v>5629</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4423</v>
+        <v>3397</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4057</v>
+        <v>4088</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5828</v>
+        <v>5718</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8638</v>
+        <v>9745</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>4394</v>
+        <v>4510</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9228</v>
+        <v>8977</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>17440</v>
+        <v>16982</v>
       </c>
     </row>
     <row r="16">
@@ -1995,40 +1995,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>50517</v>
+        <v>49719</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>45366</v>
+        <v>45161</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>44394</v>
+        <v>44557</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>51961</v>
+        <v>51867</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17244</v>
+        <v>16892</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30462</v>
+        <v>31669</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>32388</v>
+        <v>34196</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36430</v>
+        <v>35585</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>71883</v>
+        <v>71300</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>82118</v>
+        <v>83299</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>82783</v>
+        <v>81430</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>92397</v>
+        <v>89642</v>
       </c>
     </row>
     <row r="19">
@@ -2039,40 +2039,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>72403</v>
+        <v>73993</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>70756</v>
+        <v>71663</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>63662</v>
+        <v>64999</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>71669</v>
+        <v>72435</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>36156</v>
+        <v>35436</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>56868</v>
+        <v>56775</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>59845</v>
+        <v>60696</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>54930</v>
+        <v>52576</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>101326</v>
+        <v>103352</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>118801</v>
+        <v>122030</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>120662</v>
+        <v>119400</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>119967</v>
+        <v>118825</v>
       </c>
     </row>
     <row r="20">
